--- a/AlapVizsga/2025/programozas_Python_pontozas.xlsx
+++ b/AlapVizsga/2025/programozas_Python_pontozas.xlsx
@@ -15,7 +15,7 @@
     <sheet name="programozás" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">programozás!$A$1:$O$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">programozás!$A$1:$O$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Programozás Pythonban - pontozólap</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Összesen</t>
   </si>
   <si>
-    <t>3. feladatrész: Diákok nyilvántartása</t>
-  </si>
-  <si>
     <t>1.feladatrész: Hosszú szavak</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>helyesen számítja ki a kockák testátlóját</t>
   </si>
   <si>
-    <t>az adatok két tízedesjeggyel kerültek kiíratásra</t>
-  </si>
-  <si>
     <t>kockák számát int típusúra konvertálja</t>
   </si>
   <si>
@@ -102,6 +96,63 @@
   </si>
   <si>
     <t>ciklust szervez az kockák jellemzőinek kiíratására</t>
+  </si>
+  <si>
+    <t>3. feladatrész: Könyvesbolt készlete</t>
+  </si>
+  <si>
+    <t>adatszerkezetet (lista) hoz létre az objektumok tárolására</t>
+  </si>
+  <si>
+    <t>megnyitja olvasásra a konvvek.txt-t</t>
+  </si>
+  <si>
+    <t>legalább egy sorát beolvassa a txt állománynak</t>
+  </si>
+  <si>
+    <t>az összes sorát beolvassa a txt állománynak</t>
+  </si>
+  <si>
+    <t>a bekért adatok felhasználásával Konyv osztályú objektumot hoz létre</t>
+  </si>
+  <si>
+    <t>egy Konyv osztályú objektumot elhelyez a listában</t>
+  </si>
+  <si>
+    <t>a fenti tevékenységeket ciklussal valósította meg</t>
+  </si>
+  <si>
+    <t>a lista adatszerkezetben tárolt objektumok alapján megjelenít a legdrágább könyv adatait tartalmazó objektumot a mintaként megadott formában</t>
+  </si>
+  <si>
+    <t>létrehoz egy szövegfájlt a megadott néven</t>
+  </si>
+  <si>
+    <t>a szövegfájl tartalmaz legalább egy adatot</t>
+  </si>
+  <si>
+    <t>minden kért adatot tartalmaz a szövegfájl</t>
+  </si>
+  <si>
+    <t>az adatok két tizedesjeggyel kerültek kiíratásra</t>
+  </si>
+  <si>
+    <t>betölti a könyv nevű modult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Könyv osztálydefinícióját kiegészíti, úgy hogy a darabszám tárolására alkalmas legyen </t>
+  </si>
+  <si>
+    <t>az összes Konyv osztályú objektumot létrehozta és letárolta a listában</t>
+  </si>
+  <si>
+    <t>meghatározza és megfelelő formában kiíratja a képernyőre a txt fájlban lévő könyv fajtájának számát</t>
+  </si>
+  <si>
+    <t>meghatározza és megfelelő formában kiíratja a képernyőre a txt fájlban lévő könyv össz darabszámát</t>
+  </si>
+  <si>
+    <t>meghatározza és megfelelő formában kiíratja a képernyőre a txt fájlban lévő krimik darabszámát</t>
   </si>
 </sst>
 </file>
@@ -503,10 +554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +575,7 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
@@ -534,7 +585,7 @@
     </row>
     <row r="3" spans="1:3" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -542,7 +593,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -550,7 +601,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -558,7 +609,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -566,7 +617,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -574,7 +625,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -582,7 +633,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -590,7 +641,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -598,7 +649,7 @@
     </row>
     <row r="11" spans="1:3" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6">
@@ -608,7 +659,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -616,7 +667,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -624,7 +675,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -632,7 +683,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -640,7 +691,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -648,7 +699,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -656,7 +707,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -664,7 +715,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -672,7 +723,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -680,7 +731,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -688,7 +739,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -696,7 +747,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -704,7 +755,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -712,7 +763,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -720,29 +771,168 @@
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6">
-        <f>SUM(C28:C49)</f>
-        <v>0</v>
+        <f>SUM(C27:C44)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:3" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
         <f>SUM(C2,C11,C26)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.41" bottom="0.36" header="0.31496062992125984" footer="0.31496062992125984"/>
